--- a/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_5/out_of_sample/additive/ranking_test1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_5/out_of_sample/additive/ranking_test1/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.262</v>
+        <v>0.5620000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.278</v>
+        <v>15.722</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.271</v>
+        <v>0.441</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.326</v>
+        <v>20.425</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.459</v>
+        <v>0.898</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.037</v>
+        <v>8.683</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>13.66149376850072</v>
+        <v>12.6006622957346</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>27.18463617349742</v>
+        <v>16.87274619889525</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>31.61768415783226</v>
+        <v>25.92379455657846</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>9.68792819765256</v>
+        <v>1.68092889978238</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>26.48013210814935</v>
+        <v>19.62523539548423</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>30.55572633475197</v>
+        <v>23.79464489712115</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>14.10778494537529</v>
+        <v>5.965415388404189</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>32.0254229664009</v>
+        <v>36.31669845953713</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>36.37749122027641</v>
+        <v>37.8776548770099</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>33.58745262550028</v>
+        <v>19.76937112781304</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>38.66970065103661</v>
+        <v>25.22371832341728</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>40.77524341531709</v>
+        <v>27.15448194494366</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>22.8563096839348</v>
+        <v>14.60365163534116</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>35.9944391765452</v>
+        <v>15.49354084345442</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>39.88487654134964</v>
+        <v>31.18286367976086</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>18.40091897898878</v>
+        <v>11.91880578480369</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>32.23272024409334</v>
+        <v>21.19314125674027</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>36.62267869019824</v>
+        <v>28.94953106431479</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>14.0700917209866</v>
+        <v>0.4858148656865993</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>31.03711962107281</v>
+        <v>16.24534581846203</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>35.14516437548879</v>
+        <v>21.12624341098286</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>18.46337994509772</v>
+        <v>-2.437024081502607</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>36.61221083062152</v>
+        <v>25.28984131139641</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>13.66185515823188</v>
+        <v>19.04697485515812</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>27.18500662569244</v>
+        <v>31.44336615122226</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>31.6180553686506</v>
+        <v>35.92235601963672</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>9.688301787118384</v>
+        <v>7.101095980694431</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>26.48051657965271</v>
+        <v>36.84444726007136</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>30.55611190326649</v>
+        <v>38.6069995178059</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>14.10816251018903</v>
+        <v>11.08868876280165</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>32.025811598925</v>
+        <v>55.61274622997133</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>36.37788063127439</v>
+        <v>53.98127841853071</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>33.58784669657216</v>
+        <v>52.99419965795784</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>38.67009605610354</v>
+        <v>57.53927064253711</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>40.77563945316567</v>
+        <v>57.55643074508215</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>22.85669484378386</v>
+        <v>27.72807048033395</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>35.99483337389407</v>
+        <v>49.4835819278265</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>39.88527126252256</v>
+        <v>58.00213865739156</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>18.40128310069874</v>
+        <v>22.33719886007305</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>32.23309346002603</v>
+        <v>40.44532414790297</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>36.62305276115849</v>
+        <v>44.73456871155162</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>14.0704679459641</v>
+        <v>10.45690034492805</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>31.03750674670319</v>
+        <v>38.54712632158488</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>35.1455526892677</v>
+        <v>42.06421187425531</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>18.46376018660906</v>
+        <v>9.192745241568197</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>36.61260215722803</v>
+        <v>52.9527065470779</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>13.66197662538486</v>
+        <v>8.614852681060405</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>27.18512682310059</v>
+        <v>21.62315931862467</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>31.61817429724475</v>
+        <v>29.34768866616614</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>9.688428684904787</v>
+        <v>3.544680900007428</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>26.48064173038495</v>
+        <v>30.57319444270514</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>30.5562360266743</v>
+        <v>35.86386367817224</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>14.10828958532345</v>
+        <v>6.45582486485285</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>32.02593662818614</v>
+        <v>49.85650029866671</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>36.37800441194037</v>
+        <v>53.53893778953933</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>33.58797322178107</v>
+        <v>51.48963927263009</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>38.67022141721367</v>
+        <v>55.54983799736255</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>40.7757642723893</v>
+        <v>60.20546858598801</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>22.85682150131617</v>
+        <v>15.12160623202337</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>35.99495900535096</v>
+        <v>40.03328187246874</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>39.88539565903102</v>
+        <v>53.1888214544685</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>18.40140424987663</v>
+        <v>11.98967495463101</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>32.2332132440682</v>
+        <v>30.33247151344919</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>36.6231713287943</v>
+        <v>38.21642824722415</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>14.07059461034378</v>
+        <v>6.155282449685252</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>31.0376316037252</v>
+        <v>30.94451369686411</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>35.14567655017467</v>
+        <v>38.77417496698116</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>18.4638870324555</v>
+        <v>3.557474999935387</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>36.61272688316658</v>
+        <v>45.88295638809524</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>13.66182556376933</v>
+        <v>6.825885670988932</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>27.1849784420601</v>
+        <v>18.56647351891667</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>31.61802697179757</v>
+        <v>30.40184237425499</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>9.688265759022878</v>
+        <v>3.800138839818551</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>26.48048295367567</v>
+        <v>32.34288410532364</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>30.55607773799637</v>
+        <v>39.61360791781104</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>14.10812806953882</v>
+        <v>4.867035464773956</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>32.02577953695785</v>
+        <v>47.37387119798493</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>36.37784831826161</v>
+        <v>54.24673930783016</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>33.58781449637813</v>
+        <v>44.25579164537604</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>38.67006500985119</v>
+        <v>48.32178784450475</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>40.77560817267627</v>
+        <v>55.584026924349</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>22.85666174987299</v>
+        <v>12.31481828230952</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>35.99480117677901</v>
+        <v>32.03676185344762</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>39.88523898217427</v>
+        <v>52.85957509320898</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>18.40125412557116</v>
+        <v>7.906212010443205</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>32.23306599909888</v>
+        <v>24.87479534381925</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>36.62302505315476</v>
+        <v>35.97460350436433</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>14.07043253176456</v>
+        <v>3.281382651306139</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>31.03747380375398</v>
+        <v>29.07851998693122</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>35.14551919931786</v>
+        <v>38.37904462635775</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>18.46372630841568</v>
+        <v>-0.8659923723461631</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>36.61257074653098</v>
+        <v>39.17151790933534</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>40.98903673045812</v>
+        <v>31.95535880915521</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>38.26621920799629</v>
+        <v>17.41062564468579</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>43.49258333459607</v>
+        <v>29.53192031115774</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>45.65476250080339</v>
+        <v>31.86031992619807</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>27.52436809251117</v>
+        <v>5.799835578328647</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>41.02790444828388</v>
+        <v>22.10827783435796</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>44.85786626044216</v>
+        <v>31.86298873339974</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>26.0274518157602</v>
+        <v>10.63969469698277</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>39.92700656648542</v>
+        <v>20.71073818789441</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>44.38935306816484</v>
+        <v>29.09088541516798</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>22.54331886230074</v>
+        <v>-4.259558721012262</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>39.61308467609037</v>
+        <v>14.20764653528278</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>43.72412722538365</v>
+        <v>21.60561438329754</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>27.11474931725855</v>
+        <v>-6.072969947103722</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>45.36092943954185</v>
+        <v>29.18050460697541</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>49.79424000090016</v>
+        <v>40.18698984686777</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>47.63127684240224</v>
+        <v>28.89361218648751</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>52.85575192799982</v>
+        <v>38.61181702757106</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>54.94738881041208</v>
+        <v>45.86281674226453</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>36.67668776503135</v>
+        <v>5.044185721408361</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>50.22420425605339</v>
+        <v>26.83647655820258</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>54.04356595062478</v>
+        <v>39.98726497650276</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>40.98942896346988</v>
+        <v>58.24518853729862</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>38.26661581081196</v>
+        <v>53.9453802012821</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>43.49298128555296</v>
+        <v>65.08371962772762</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>45.65516109535233</v>
+        <v>65.50904279210869</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>27.5247559354322</v>
+        <v>25.34437618915647</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>41.02830139863855</v>
+        <v>62.4680166512811</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>44.85826377836656</v>
+        <v>66.89631640423963</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>26.02782292690889</v>
+        <v>27.6577748708524</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>39.92738683753721</v>
+        <v>46.73704147586583</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>44.38973415658504</v>
+        <v>50.84317845095826</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>22.54370220712331</v>
+        <v>13.78804856924445</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>39.61347897420683</v>
+        <v>44.98592161294577</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>43.72452265635778</v>
+        <v>50.27527407270373</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>27.11513685910131</v>
+        <v>13.25658344084284</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>45.36132817885592</v>
+        <v>65.08321738951173</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>49.79463954614045</v>
+        <v>73.1092313956797</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>47.63168102590159</v>
+        <v>75.53348021571298</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>52.85615743689528</v>
+        <v>83.99418162945318</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>54.94779491170163</v>
+        <v>89.09671861791207</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>36.6770830549203</v>
+        <v>34.13004172073656</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>50.22460868810321</v>
+        <v>77.83745968979048</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>54.04397092446387</v>
+        <v>84.70973793546176</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>40.98955248458579</v>
+        <v>57.37783937923638</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>38.26674200067144</v>
+        <v>48.79811834881813</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>43.49310626966513</v>
+        <v>58.53763845479254</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>45.65528551543692</v>
+        <v>64.03181767549464</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>27.52488231233159</v>
+        <v>13.24601367529861</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>41.02842664372396</v>
+        <v>53.7499848168026</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>44.85838782706539</v>
+        <v>62.42792680824025</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>26.02794296289837</v>
+        <v>17.94462068527523</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>39.92750551273127</v>
+        <v>37.88486832628647</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>44.38985156857278</v>
+        <v>45.4724744560744</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>22.54382748690148</v>
+        <v>9.957443817662217</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>39.61360243096394</v>
+        <v>38.43457149978835</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>43.72464508396277</v>
+        <v>47.73564589937653</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>27.11526232686233</v>
+        <v>8.56294790767226</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>45.36145154026974</v>
+        <v>59.72448179647399</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>49.79476163980433</v>
+        <v>73.62219914934491</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>47.63180567843335</v>
+        <v>72.44293690364495</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>52.85628087225353</v>
+        <v>79.90601307351412</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>54.94791779268638</v>
+        <v>90.40304003005778</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>36.67720792680853</v>
+        <v>22.93582266211028</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>50.2247324398092</v>
+        <v>71.06740382420918</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>54.04409346622467</v>
+        <v>82.23455819964451</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>40.98939727633756</v>
+        <v>52.83410972930913</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>38.26658444998648</v>
+        <v>36.08974250904959</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>43.49295111964048</v>
+        <v>45.00634584680174</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>45.6551306914605</v>
+        <v>52.87292184960925</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>27.52472356452196</v>
+        <v>6.237710955124136</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>41.02827003611053</v>
+        <v>42.90175161283339</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>44.85823231271308</v>
+        <v>57.41108884324061</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>26.02779022720201</v>
+        <v>15.88492603924258</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>39.92735562885377</v>
+        <v>34.90530650328157</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>44.38970271981044</v>
+        <v>46.17683402866013</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>22.5436632397132</v>
+        <v>8.630440031599228</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>39.61344245344527</v>
+        <v>38.59621835347671</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>43.72448559651507</v>
+        <v>49.60847833799102</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>27.11509940752114</v>
+        <v>5.22982028396374</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>45.36129316351395</v>
+        <v>54.8738679587539</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>49.79460430150883</v>
+        <v>71.75287815247307</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>47.63164612747868</v>
+        <v>62.12377822075886</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>52.85612371444802</v>
+        <v>69.30276135112473</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>54.9477609776835</v>
+        <v>82.75064412610445</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>36.67704723327052</v>
+        <v>16.94986028207774</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>50.22457384449214</v>
+        <v>61.49538443027254</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>54.04393597578962</v>
+        <v>78.875737201802</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>7.833107983260284</v>
+        <v>11.90846682738124</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>21.29188589936029</v>
+        <v>12.69681179532149</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>25.65718013894829</v>
+        <v>22.32617712821401</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>3.571995741079977</v>
+        <v>1.886581402841479</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>20.28967649815437</v>
+        <v>13.85753734975939</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>24.29936172731049</v>
+        <v>18.26315522492926</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>7.982767115415182</v>
+        <v>6.287572347001863</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>25.79549779921611</v>
+        <v>32.49087819759016</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>30.09360243854577</v>
+        <v>34.41850748250145</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>27.15808911665381</v>
+        <v>16.4650931010738</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>32.24538490542279</v>
+        <v>21.62344432323037</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>34.30422276166696</v>
+        <v>22.86067318550997</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>16.39172415602843</v>
+        <v>10.0167745873055</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>29.46761207089284</v>
+        <v>11.64718816891395</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>33.30868097838646</v>
+        <v>20.3206771808639</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>12.7694634149426</v>
+        <v>11.10323607872616</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>26.54441809823803</v>
+        <v>19.32268980672362</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>30.86995007358674</v>
+        <v>27.06655986706944</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>8.162804658492533</v>
+        <v>-2.119752383603291</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>25.06547227847978</v>
+        <v>11.77129044738604</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>29.11113118189055</v>
+        <v>16.85367534798468</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>12.55436778957941</v>
+        <v>-1.938223738892127</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>30.60910987079438</v>
+        <v>24.30106302317038</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>7.833464946118919</v>
+        <v>14.03206640932158</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>21.2922518635852</v>
+        <v>22.6927403115542</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>25.65754684807546</v>
+        <v>27.93026306360637</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>3.572364880674851</v>
+        <v>3.095070261904574</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>20.29005649630662</v>
+        <v>26.82009990531356</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>24.29974280263858</v>
+        <v>28.778527260804</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>7.983140135047165</v>
+        <v>6.610297552757807</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>25.79588179993749</v>
+        <v>46.66089903066305</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>30.09398720639268</v>
+        <v>45.54128226441996</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>27.15847846841092</v>
+        <v>43.45203430936173</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>32.24577556681874</v>
+        <v>48.07948708605642</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>34.30461405747222</v>
+        <v>47.68404903360722</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>16.3921046017765</v>
+        <v>17.94668287329484</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>29.46800151997894</v>
+        <v>39.81991449407978</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>33.30907093711598</v>
+        <v>41.38475749839984</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>12.76982304402625</v>
+        <v>16.15158278211215</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>26.54478676127784</v>
+        <v>32.9449825160069</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>30.87031957779752</v>
+        <v>37.40324440198834</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>8.16317636591404</v>
+        <v>2.52874336560965</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>25.06585486589053</v>
+        <v>28.74979490318223</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>29.11151493737918</v>
+        <v>32.39960369807287</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>12.55474341495727</v>
+        <v>3.743971905022001</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>30.6094964970697</v>
+        <v>45.63290018430545</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>7.833586885591021</v>
+        <v>5.031597309237192</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>21.29237253044715</v>
+        <v>14.31640449985452</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>25.65766626536561</v>
+        <v>22.57543554057825</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>3.572492332520653</v>
+        <v>1.030220206983934</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>20.29018222138685</v>
+        <v>22.18074506370815</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>24.29986751848179</v>
+        <v>27.43869818252751</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>7.983267737794385</v>
+        <v>3.512162887622374</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>25.79600735903192</v>
+        <v>42.47178851622915</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>30.09411153337611</v>
+        <v>46.27282050539993</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>27.15860553349154</v>
+        <v>43.30701454265927</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>32.24590145577389</v>
+        <v>47.26906398678575</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>34.3047394284668</v>
+        <v>51.50021877027627</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>16.39223180924512</v>
+        <v>7.013233228516107</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>29.46812771034305</v>
+        <v>32.05998633968432</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>33.30919590898996</v>
+        <v>37.61518237296256</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>12.76994459148759</v>
+        <v>7.135941359587299</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>26.54490693860775</v>
+        <v>24.17855500832702</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>30.87043855769553</v>
+        <v>31.98381493608895</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>8.163303505593369</v>
+        <v>-0.3611955129910811</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>25.06598021641969</v>
+        <v>22.71673475408247</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>29.11163930948923</v>
+        <v>30.38795903197761</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>12.55487070553647</v>
+        <v>-0.4449715775365277</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>30.60962166741763</v>
+        <v>40.03583199576656</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>7.833434277101777</v>
+        <v>3.830346285513265</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>21.29222257275982</v>
+        <v>11.84573946249925</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>25.65751736477854</v>
+        <v>24.13753176691322</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>3.572327696075103</v>
+        <v>1.828854888858025</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>20.29002167194046</v>
+        <v>24.17033819462234</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>24.29970746968589</v>
+        <v>31.60171919321619</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>7.983104552430113</v>
+        <v>2.929351503848558</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>25.79584856054722</v>
+        <v>40.9606483604512</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>30.09395374320518</v>
+        <v>47.80407663034254</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>27.15844503144699</v>
+        <v>37.72885010732171</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>32.24574329020693</v>
+        <v>41.77860444910591</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>34.30458156124993</v>
+        <v>48.16626965788587</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>16.39207028254283</v>
+        <v>5.565914397878664</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>29.46796806814374</v>
+        <v>25.67668352641792</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>33.30903742882852</v>
+        <v>38.69733479144612</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>12.76979311061523</v>
+        <v>4.367652047821345</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>26.54475831131505</v>
+        <v>20.04709610272301</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>30.87029090455823</v>
+        <v>30.94596088645213</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>8.163139916286855</v>
+        <v>-1.935351162687276</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>25.06582084811004</v>
+        <v>21.81076566587308</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>29.11148040657477</v>
+        <v>31.08266092515937</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>12.55470851835743</v>
+        <v>-3.109248030979124</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>30.6094640351842</v>
+        <v>35.08941522289752</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>34.93564361610709</v>
+        <v>30.91612772779735</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>32.06472867539784</v>
+        <v>15.9606225908672</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>37.29756566624242</v>
+        <v>26.60516235322257</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>39.41208332380022</v>
+        <v>28.77026739664505</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>21.28267704492893</v>
+        <v>3.890119708392895</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>34.72811802587068</v>
+        <v>19.94681669360197</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>38.51841459899464</v>
+        <v>25.38881013085678</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>20.90962160204622</v>
+        <v>11.2641076774892</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>34.75628588129555</v>
+        <v>21.66991708885389</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>39.15367150563812</v>
+        <v>30.02543557588778</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>17.13099792690382</v>
+        <v>-6.224830361008109</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>34.14835278120473</v>
+        <v>12.0925009086771</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>38.19455426165485</v>
+        <v>19.3786305703786</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>21.71540866922341</v>
+        <v>-4.318244646196881</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>39.87000940058644</v>
+        <v>30.87332858570759</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>44.2524641456702</v>
+        <v>42.13719799372991</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>41.95068676420797</v>
+        <v>29.42526439331093</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>47.18324206529306</v>
+        <v>38.37107600007472</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>49.23027856362159</v>
+        <v>44.48481382106909</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>30.95805770434391</v>
+        <v>4.149493436103008</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>44.4518541426244</v>
+        <v>28.03626217664686</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>48.22711799076519</v>
+        <v>36.33557840639123</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>34.936031137442</v>
+        <v>51.034488718664</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>32.0651204922508</v>
+        <v>45.12253091266948</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>37.29795880641385</v>
+        <v>55.19733541029041</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>39.41247711010343</v>
+        <v>55.70997132356857</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>21.28306010590754</v>
+        <v>17.13472098119241</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>34.7285101595406</v>
+        <v>53.41814565879941</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>38.51880728782726</v>
+        <v>53.50515448529126</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>20.90998859558926</v>
+        <v>23.72010989337708</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>34.75666197798986</v>
+        <v>42.87204018690333</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>39.15404840703114</v>
+        <v>47.13255153710805</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>17.13137713674071</v>
+        <v>7.287672669740353</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>34.14874292945647</v>
+        <v>38.36840788392599</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>38.19494552235454</v>
+        <v>43.45211156045264</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>21.71579198508075</v>
+        <v>9.872773815950644</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>39.87040383241293</v>
+        <v>61.25963767904793</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>44.25285937272517</v>
+        <v>69.68653108216986</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>41.95108656177196</v>
+        <v>69.53676523662395</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>47.18364316430331</v>
+        <v>77.59909525788925</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>49.23068025657736</v>
+        <v>81.85816741607513</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>30.95844861133002</v>
+        <v>27.71091835638644</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>44.45225416023484</v>
+        <v>72.93165838472368</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>48.22751853667489</v>
+        <v>74.94069349643243</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>34.9361551190354</v>
+        <v>51.19565386158386</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>32.06524713682465</v>
+        <v>41.29432902900357</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>37.2980842322694</v>
+        <v>49.77964282209468</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>39.41260199720985</v>
+        <v>55.33971266469096</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>21.28318694873848</v>
+        <v>6.540792505404347</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>34.7286358783977</v>
+        <v>46.2755163486674</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>38.51893182500718</v>
+        <v>49.97007699506543</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>20.91010898153229</v>
+        <v>15.45697490368142</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>34.7567809983852</v>
+        <v>35.48789250518016</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>39.15416618299642</v>
+        <v>42.97926410904623</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>17.13150285238539</v>
+        <v>4.981555381668223</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>34.14886683876116</v>
+        <v>33.52306533092733</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>38.19506841997364</v>
+        <v>42.32467161054826</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>21.71591785598685</v>
+        <v>6.740030670051176</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>39.87052759709429</v>
+        <v>57.51284372313885</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>44.25298188541169</v>
+        <v>71.36142175236773</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>41.95121162874187</v>
+        <v>67.90677243057749</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>47.18376700144012</v>
+        <v>74.79470300060655</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>49.23080356245929</v>
+        <v>84.41654920238423</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>30.95857390733937</v>
+        <v>18.19501050399573</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>44.45237834390115</v>
+        <v>67.89829919954289</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>48.22764152538421</v>
+        <v>73.52790925945177</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>34.93599842976336</v>
+        <v>48.20280765640283</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>32.06508802218833</v>
+        <v>31.0718484781184</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>37.29792753725378</v>
+        <v>38.76450112584408</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>39.4124456199731</v>
+        <v>46.26706645150018</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>21.28302663741578</v>
+        <v>1.595597515652464</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>34.72847767221867</v>
+        <v>37.70950906072606</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>38.51877472788022</v>
+        <v>47.03521257659606</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>20.90995504573144</v>
+        <v>13.94249315856002</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>34.75662988716061</v>
+        <v>33.08990855804854</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>39.1540161096038</v>
+        <v>44.14127515590554</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>17.1313372292797</v>
+        <v>4.210519782062967</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>34.14870542934399</v>
+        <v>33.90713722180076</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>38.19490751549066</v>
+        <v>44.57716302015533</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>21.71575361687971</v>
+        <v>4.405617009114941</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>39.87036786653948</v>
+        <v>53.71000597623536</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>44.25282320527124</v>
+        <v>70.31976337721352</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>41.95105065686248</v>
+        <v>59.24500778417391</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>47.18360844209626</v>
+        <v>65.9526427280617</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>49.23064533787662</v>
+        <v>78.04490017752002</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>30.95841179298358</v>
+        <v>13.50172716467726</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>44.45221829213277</v>
+        <v>59.91375666871384</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>48.2274825908453</v>
+        <v>71.51493042748291</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>15.37126491054667</v>
+        <v>12.63976369713726</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>29.00008057823221</v>
+        <v>17.14209930899168</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>33.42461698146026</v>
+        <v>25.97494982439833</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>11.34428640799777</v>
+        <v>0.9672164990408092</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>28.26676919431507</v>
+        <v>19.52351105747872</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>32.32643881490145</v>
+        <v>22.94163619043818</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>15.78661440098459</v>
+        <v>5.507684842360653</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>33.83180465587914</v>
+        <v>37.81888596002722</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>38.17722385379118</v>
+        <v>38.31882568938122</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>35.31792472452079</v>
+        <v>19.98979989053547</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>40.4445406617525</v>
+        <v>26.62029885681216</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>42.53963767100917</v>
+        <v>27.86543980053285</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>24.47953895988049</v>
+        <v>15.25218177247479</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>37.69255544094156</v>
+        <v>16.02680311295257</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>41.57831195977044</v>
+        <v>29.3592683009963</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>20.3546556062889</v>
+        <v>15.14070103004637</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>34.2947807713572</v>
+        <v>25.41924336927523</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>38.67467338159963</v>
+        <v>32.71652813074781</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>15.97120475675869</v>
+        <v>2.227800802207589</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>33.0718371126658</v>
+        <v>19.76610831891723</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>37.16341904951059</v>
+        <v>23.99868592001889</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>20.39079849755428</v>
+        <v>0.02211414354596997</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>38.67054690158157</v>
+        <v>30.59709841886738</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>15.37162814712905</v>
+        <v>19.43377445821438</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>29.00045292673842</v>
+        <v>32.02819081391267</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>33.42499006747292</v>
+        <v>36.24918292460354</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>11.34466189923803</v>
+        <v>6.593287618954982</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>28.26715564236245</v>
+        <v>36.95860355240334</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>32.3268263363697</v>
+        <v>37.9705103207657</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>15.78699385933934</v>
+        <v>10.76480909998802</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>33.83219523726899</v>
+        <v>57.20298873282153</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>38.17761519136291</v>
+        <v>54.4526400720545</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>35.31832074539111</v>
+        <v>53.0621408974291</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>40.44493801090953</v>
+        <v>58.77981953639296</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>42.54003564902435</v>
+        <v>58.15765433421169</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>24.47992601071956</v>
+        <v>28.36953459530552</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>37.69295157279839</v>
+        <v>49.80379670051762</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>41.57870859653936</v>
+        <v>55.98842789121853</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>20.35502162887931</v>
+        <v>25.34905382334777</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>34.29515593793761</v>
+        <v>44.42898999560783</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>38.67504938159614</v>
+        <v>48.22134486563787</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>15.97158293742032</v>
+        <v>11.86469692891723</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>33.07222626984277</v>
+        <v>41.75839119499933</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>37.16380937077296</v>
+        <v>44.61358897551376</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>20.39118068641576</v>
+        <v>11.22615711918676</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>38.67094023159648</v>
+        <v>57.78459743247777</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>15.37174961498715</v>
+        <v>10.15116654879856</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>29.0005731073362</v>
+        <v>23.38349981314199</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>33.42510897242225</v>
+        <v>30.75528491638844</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>11.34478883095079</v>
+        <v>4.19586443714423</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>28.26728081092669</v>
+        <v>31.89694325906184</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>32.32695047360529</v>
+        <v>36.32833540230894</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>15.78712096181673</v>
+        <v>7.353074631369573</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>33.83232027078252</v>
+        <v>52.72080219413497</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>38.17773896915354</v>
+        <v>55.12113652611109</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>35.31844729003379</v>
+        <v>52.79865299966276</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>40.44506337448246</v>
+        <v>57.99734068142303</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>42.54016047475946</v>
+        <v>61.95402798569922</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>24.48005270155118</v>
+        <v>17.10404457657587</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>37.69307722903476</v>
+        <v>41.74255439388444</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>41.57883301263261</v>
+        <v>52.30041587112721</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>20.35514272443677</v>
+        <v>16.09646365576805</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>34.29527565008901</v>
+        <v>35.4368226334789</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>38.67516787107218</v>
+        <v>42.71607037145606</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>15.97170958106638</v>
+        <v>8.668345916155353</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>33.07235108942844</v>
+        <v>35.30879878195007</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>37.16393319045292</v>
+        <v>42.34691517228723</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>20.39130750331392</v>
+        <v>6.752980369526433</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>38.67106490476505</v>
+        <v>51.9341972357911</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>15.37159849160556</v>
+        <v>8.70475601691701</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>29.00042468344079</v>
+        <v>20.72506140932985</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>33.42496161838776</v>
+        <v>32.23252240707266</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>11.34462576023289</v>
+        <v>5.028641975404078</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>28.26712190959222</v>
+        <v>34.25147022096275</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>32.32679207397651</v>
+        <v>40.68788571281855</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>15.78695932276506</v>
+        <v>6.424595047629829</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>33.83216308688233</v>
+        <v>50.92431718127927</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>38.17758280074324</v>
+        <v>56.52664423574502</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>35.31828842519847</v>
+        <v>46.3619408895157</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>40.44490685694601</v>
+        <v>51.66199223636304</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>42.54000426650215</v>
+        <v>58.19226274458394</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>24.4798927979739</v>
+        <v>15.05884313840375</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>37.69291924939321</v>
+        <v>34.64566532223385</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>41.5786762014861</v>
+        <v>52.82076033755062</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>20.35499265638755</v>
+        <v>12.45967761668911</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>34.29512848147819</v>
+        <v>30.47240703203293</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>38.67502168585483</v>
+        <v>40.98761457836711</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>15.97154747731566</v>
+        <v>6.438689889234077</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>33.07219328575029</v>
+        <v>34.08273044618111</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>37.16377584998388</v>
+        <v>42.61632295680619</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>20.39114677791206</v>
+        <v>3.058878115166443</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>38.67090879879397</v>
+        <v>45.96830372191014</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>43.03951249631416</v>
+        <v>35.84987734300299</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>40.2505869883268</v>
+        <v>21.8413719238858</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>45.52272210094608</v>
+        <v>35.01268606841086</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>47.67405683586281</v>
+        <v>36.62525836905329</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>29.40051454953966</v>
+        <v>10.86444317619479</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>42.98150549517169</v>
+        <v>27.16898103518339</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>46.80792799881576</v>
+        <v>35.16012194729411</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>28.03110437642506</v>
+        <v>13.0139824186536</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>42.03840567898374</v>
+        <v>24.18903427680582</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>46.49162145178676</v>
+        <v>31.92593360717803</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>24.49390145949971</v>
+        <v>-3.918810127992508</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>41.69855681865229</v>
+        <v>16.40794735809244</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>45.792341911733</v>
+        <v>22.98456156067125</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>29.09384270732521</v>
+        <v>-4.91226465711437</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>47.47003462567987</v>
+        <v>33.3842471552199</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>51.89709715255562</v>
+        <v>42.87197041589273</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>49.67313980708495</v>
+        <v>32.29107448675408</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>54.94364773733385</v>
+        <v>42.96790045986197</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>57.02488225601091</v>
+        <v>48.80834021373281</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>38.61064511711725</v>
+        <v>8.697569524222935</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>52.23631602654477</v>
+        <v>30.78305904993787</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>56.05171226692556</v>
+        <v>41.67964631325086</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>43.03990671010217</v>
+        <v>61.59441548279811</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>40.25098559503749</v>
+        <v>57.71573141700464</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>45.52312204967086</v>
+        <v>69.88892923171889</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>47.67445742421532</v>
+        <v>69.64300709597939</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>29.40090433889418</v>
+        <v>29.89425289144143</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>42.98190443518056</v>
+        <v>66.81782603483012</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>46.80832748750008</v>
+        <v>69.47619357596469</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>28.03147744676241</v>
+        <v>29.73109941870516</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>42.03878795912019</v>
+        <v>49.86935687440761</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>46.49200452789177</v>
+        <v>53.29521751960315</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>24.49428682337459</v>
+        <v>13.68923885717502</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>41.6989532122706</v>
+        <v>46.76450889295538</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>45.79273941370907</v>
+        <v>51.20954329268344</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>29.09423226113904</v>
+        <v>13.89138656810443</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>47.47043543344354</v>
+        <v>68.6976872840772</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>51.89749874339086</v>
+        <v>75.13624872921034</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>49.67354606381607</v>
+        <v>78.15221867621179</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>54.94405531316569</v>
+        <v>87.55810641883809</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>57.02529042008793</v>
+        <v>91.29237079549219</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>38.61104242217412</v>
+        <v>37.15017006241533</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>52.23672251798396</v>
+        <v>80.9429313022097</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>56.05211928120822</v>
+        <v>85.5493302729746</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>43.04003017178452</v>
+        <v>61.75545833667181</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>40.2511117468108</v>
+        <v>53.7649260095499</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>45.52324697801302</v>
+        <v>64.50730896984365</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>47.67458179280444</v>
+        <v>69.2628653562937</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>29.40103069221688</v>
+        <v>19.05278581194114</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>42.98202964720006</v>
+        <v>59.41929424091871</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>46.80845149779564</v>
+        <v>66.06101339049303</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>28.03159741855396</v>
+        <v>21.08744594309827</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>42.0389065520564</v>
+        <v>42.11058978349573</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>46.49212185117878</v>
+        <v>48.91243484034116</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>24.49441207340737</v>
+        <v>10.93173114634349</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>41.69907662222218</v>
+        <v>41.3393518619856</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>45.79286179080781</v>
+        <v>49.66883419564437</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>29.09435769072875</v>
+        <v>10.33309415555565</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>47.4705587332697</v>
+        <v>64.52991201490295</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>51.89762076829601</v>
+        <v>76.65364278006794</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>49.67367066921919</v>
+        <v>76.23614127805931</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>54.94417868373545</v>
+        <v>84.61342150648366</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>57.02541324032585</v>
+        <v>93.66566875815514</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>38.61116726109414</v>
+        <v>27.20056477758224</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>52.23684622744302</v>
+        <v>75.47604775772444</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>56.05224177551736</v>
+        <v>84.09925596011325</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>43.03987501210819</v>
+        <v>57.97363143089473</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>40.25095418261724</v>
+        <v>41.9124143732029</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>45.52309184462826</v>
+        <v>51.94119044623157</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>47.67442698734422</v>
+        <v>59.04499852628854</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>29.40087191703529</v>
+        <v>12.85059284928381</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>42.98187301488227</v>
+        <v>49.50825586203721</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>46.80829597652091</v>
+        <v>61.93777004157037</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>28.03144474751467</v>
+        <v>19.18016429763652</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>42.03875675200999</v>
+        <v>39.34610485058071</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>46.49197310065198</v>
+        <v>49.84732512214624</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>24.49424780487744</v>
+        <v>9.96331358188511</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>41.69891664463633</v>
+        <v>41.86903169227867</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>45.79270231725749</v>
+        <v>51.93585425495682</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>29.09419477515266</v>
+        <v>7.428596056203595</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>47.47040039116511</v>
+        <v>60.14663604117212</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>51.89746348343634</v>
+        <v>75.25762586209876</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>49.67351111057978</v>
+        <v>66.49499384200931</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>54.94402154883274</v>
+        <v>74.69534827339666</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>57.02525645016649</v>
+        <v>86.65187954942127</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>38.611006546238</v>
+        <v>21.73161085812794</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>52.2366876129955</v>
+        <v>66.5756835705734</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>56.05208428326245</v>
+        <v>81.3565853798282</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>4.690004943983567</v>
+        <v>10.41871991020697</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>17.85868849817475</v>
+        <v>9.019662706207704</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>22.15598306483416</v>
+        <v>17.67249305260456</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>0.3707884233868377</v>
+        <v>-0.3978530878148305</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>16.7121513111499</v>
+        <v>7.142196102985743</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>20.67457025578009</v>
+        <v>11.62932373458049</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>4.677351606397533</v>
+        <v>3.652169368043907</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>22.11805618118694</v>
+        <v>23.13465488448657</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>26.35564292954824</v>
+        <v>24.82741615456232</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>23.47599855056588</v>
+        <v>9.200696909466707</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>28.47836009815449</v>
+        <v>14.00038378258359</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>30.51131321299443</v>
+        <v>15.23954480465975</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>12.93136280110706</v>
+        <v>6.424438248115827</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>25.7578414011455</v>
+        <v>5.455383568083114</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>29.53788146349721</v>
+        <v>12.89981785957259</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>9.603833420664962</v>
+        <v>11.03956266334993</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>23.08630367729829</v>
+        <v>16.90871948861204</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>27.34808962391796</v>
+        <v>24.1652317519008</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>4.951158742761095</v>
+        <v>-1.598563004187092</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>21.47872370628028</v>
+        <v>7.829024582825959</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>25.47931993846853</v>
+        <v>13.44588860292121</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>9.237810162230366</v>
+        <v>-1.844670350100692</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>26.91956043021417</v>
+        <v>17.90625796699982</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>4.690355731624841</v>
+        <v>12.45622817306703</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>17.85904812773107</v>
+        <v>18.88759135413569</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>22.15634344095511</v>
+        <v>23.2677238930719</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>0.3711511577497433</v>
+        <v>0.9142955124131973</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>16.71252470118591</v>
+        <v>20.09756079661182</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>20.67494472645212</v>
+        <v>22.27633182571649</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>4.677718164669191</v>
+        <v>4.090423034281322</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>22.11843352549367</v>
+        <v>37.3255602837777</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>26.35602104461981</v>
+        <v>36.0965473624732</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>23.47638114962404</v>
+        <v>35.68124080780098</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>28.47874398755954</v>
+        <v>39.98978634102205</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>30.51169773467482</v>
+        <v>39.68984338524871</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>12.93173665262188</v>
+        <v>14.21435206255348</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>25.75822410028113</v>
+        <v>33.27366039041414</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>29.53826467770974</v>
+        <v>33.94043741356638</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>9.604186825179438</v>
+        <v>16.08109119428872</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>23.08666595670314</v>
+        <v>30.47866903366393</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>27.34845274568461</v>
+        <v>34.55686228061575</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>4.951523999132071</v>
+        <v>3.226373194601514</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>21.4790996401703</v>
+        <v>24.8617600493796</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>25.4796970433931</v>
+        <v>29.17845994027042</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>9.238179279286145</v>
+        <v>4.008617385853235</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>26.9199403534964</v>
+        <v>39.28860981496258</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>4.690476774547168</v>
+        <v>3.64223444071397</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>17.85916793493308</v>
+        <v>10.6122366998753</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>22.15646202181972</v>
+        <v>18.02387656255221</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>0.37127765399309</v>
+        <v>-1.119956503901157</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>16.71264952205009</v>
+        <v>15.46662514552859</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>20.67506855553748</v>
+        <v>20.9642754501623</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>4.677844825332727</v>
+        <v>1.105095506529985</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>22.11855819433412</v>
+        <v>33.17431613998912</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>26.35614450284523</v>
+        <v>36.89144806140576</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>23.47650729313691</v>
+        <v>35.36922556595645</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>28.47886897502556</v>
+        <v>38.95022579378693</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>30.51182221287328</v>
+        <v>43.29594222216958</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>12.93186292797602</v>
+        <v>3.553866414006457</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>25.75834938078225</v>
+        <v>25.56035819858085</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>29.53838876279332</v>
+        <v>30.23770901851604</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>9.604307455700415</v>
+        <v>7.157544898407146</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>23.08678525499989</v>
+        <v>21.72148426159951</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>27.34857086836414</v>
+        <v>29.15968790926861</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>4.951650160125215</v>
+        <v>0.2836714453821756</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>21.47922406323595</v>
+        <v>18.7582156084047</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>25.47982050464427</v>
+        <v>27.11314377019583</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>9.238305604647969</v>
+        <v>-0.1559405249094183</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>26.92006461096078</v>
+        <v>33.64063823106009</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>4.690324988207323</v>
+        <v>1.687752671979361</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>17.85901873305739</v>
+        <v>7.365679170982936</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>22.15631384304447</v>
+        <v>18.70944583793642</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>0.371113987953219</v>
+        <v>-1.341058962270658</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>16.71248984024985</v>
+        <v>16.39717115232759</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>20.67490935168278</v>
+        <v>23.98185506482717</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>4.677682560015359</v>
+        <v>-0.4863887193503658</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>22.11840021588192</v>
+        <v>30.62396729017599</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>26.35598750105044</v>
+        <v>37.30445861426637</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>23.47634765179239</v>
+        <v>28.89011796446332</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>28.47871163070367</v>
+        <v>32.55772761076089</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>30.51166515756333</v>
+        <v>39.02969081987951</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>12.93170228546461</v>
+        <v>1.292889915621522</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>25.75819058695766</v>
+        <v>18.34502812148936</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>29.53823109765602</v>
+        <v>30.28442482901483</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>9.604156826443447</v>
+        <v>3.720467664903403</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>23.0866374112801</v>
+        <v>16.89070175786723</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>27.34842396762723</v>
+        <v>27.34059530326957</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>4.951487574118577</v>
+        <v>-2.192532333590968</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>21.4790655959209</v>
+        <v>16.91909644909538</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>25.47966248161206</v>
+        <v>26.79063139063033</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>9.238144371383065</v>
+        <v>-3.712865202120888</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>26.91990783173171</v>
+        <v>27.79061928009805</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>31.18898067031793</v>
+        <v>24.49095794403926</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>28.36876862911113</v>
+        <v>11.08953695183246</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>33.51492647716162</v>
+        <v>21.55120810381215</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>35.60380208498226</v>
+        <v>24.01521296831377</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>17.8059614255318</v>
+        <v>1.743906657231669</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>30.99761811193612</v>
+        <v>14.49109665812416</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>34.73079446809955</v>
+        <v>19.46338086417126</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>17.78907639152552</v>
+        <v>11.66752263701043</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>31.34422568527611</v>
+        <v>19.67909836361572</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>35.67688209469263</v>
+        <v>27.53759189617512</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>13.94712834870383</v>
+        <v>-5.634844913398545</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>30.59063242131471</v>
+        <v>8.235636992200348</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>34.59214138130032</v>
+        <v>16.03554662680322</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>18.42889579636113</v>
+        <v>-4.076097253960675</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>36.21189136316941</v>
+        <v>24.54773604848376</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>40.53538514832989</v>
+        <v>35.79911777713429</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>38.27694390655617</v>
+        <v>24.4594593621992</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>43.42316378916001</v>
+        <v>33.19417112119451</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>45.44504125771525</v>
+        <v>39.70915330512305</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>27.50623580645417</v>
+        <v>2.824959784551233</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>40.74636848163232</v>
+        <v>22.90652395571207</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>44.46445098529479</v>
+        <v>30.95155018516287</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>31.18936149146118</v>
+        <v>44.77733532440744</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>28.3691536501357</v>
+        <v>39.83789776879573</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>33.51531280240611</v>
+        <v>49.78246358713162</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>35.60418905412018</v>
+        <v>50.69272040651206</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>17.80633784547248</v>
+        <v>14.87843121573068</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>30.99800344856293</v>
+        <v>47.64986655043379</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>34.73118036529622</v>
+        <v>47.55924915913739</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>17.78943715628827</v>
+        <v>24.45615318655144</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>31.34459539303382</v>
+        <v>41.16821589620145</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>35.67725260994995</v>
+        <v>45.04814687532929</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>13.94750109898322</v>
+        <v>8.373957830818121</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>30.59101590695964</v>
+        <v>34.88736872241132</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>34.59252598400205</v>
+        <v>40.62553838451795</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>18.42927259573164</v>
+        <v>10.61578480823963</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>36.21227908238109</v>
+        <v>55.31487952526926</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>40.5357736680256</v>
+        <v>63.86865985513234</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>38.27733689686399</v>
+        <v>64.49643811108962</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>43.42355806238071</v>
+        <v>72.40117042313702</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>45.44543612356179</v>
+        <v>77.17424818169422</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>27.50662006269441</v>
+        <v>26.62000903987377</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>40.74676169170796</v>
+        <v>67.80938636560572</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>44.4648447296444</v>
+        <v>69.87914478568558</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>31.18948458037095</v>
+        <v>44.91597600277337</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>28.36927935141724</v>
+        <v>35.80566841969131</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>33.51543730573049</v>
+        <v>44.10863050140745</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>35.60431302744428</v>
+        <v>50.09256739310573</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>17.8064637342247</v>
+        <v>4.45087491609673</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>30.99812823718035</v>
+        <v>40.44282519411778</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>34.7313039940268</v>
+        <v>43.99703045878625</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>17.7895566298093</v>
+        <v>16.2769287256497</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>31.3447135381608</v>
+        <v>33.78067000906302</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>35.67736953345489</v>
+        <v>40.9076671656581</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>13.94762584509896</v>
+        <v>6.013525950743549</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>30.59113889741945</v>
+        <v>29.96330931293139</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>34.59264797999029</v>
+        <v>39.44242647452999</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>18.42939750994329</v>
+        <v>7.500210014279794</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>36.21240194172861</v>
+        <v>51.50428762379116</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>40.53589529706952</v>
+        <v>65.51439733444104</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>38.27746103118597</v>
+        <v>62.64426705624204</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>43.42368098764433</v>
+        <v>69.31952061379386</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>45.44555852629885</v>
+        <v>79.48325583575078</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>27.50674441452355</v>
+        <v>17.2615285322217</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>40.7468849545989</v>
+        <v>62.68833551266824</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>44.46496681960217</v>
+        <v>68.42103626505678</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>31.18932871503806</v>
+        <v>40.94714490161329</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>28.36912112556265</v>
+        <v>24.86038235829307</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>33.51528145891044</v>
+        <v>32.36308708546583</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>35.60415748944206</v>
+        <v>40.26286253767913</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>17.80630433706438</v>
+        <v>-1.169944433101413</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>30.99797090690782</v>
+        <v>31.14885932191732</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>34.73114774149328</v>
+        <v>40.1767341931734</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>17.78940362952074</v>
+        <v>13.77585933988909</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>31.34456329547976</v>
+        <v>30.36329045966159</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>35.67722029597377</v>
+        <v>40.96417123356353</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>13.94746130122804</v>
+        <v>4.026420187524089</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>30.59097846618886</v>
+        <v>29.09369137650499</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>34.59248803182938</v>
+        <v>40.35582732163653</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>18.42923430242787</v>
+        <v>3.961003987613658</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>36.21224314355449</v>
+        <v>46.47457999451701</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>40.53573751745968</v>
+        <v>63.16796656579795</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>38.27730102443572</v>
+        <v>52.90250576956215</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>43.42352335256147</v>
+        <v>59.38665551293889</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>45.44540121626916</v>
+        <v>71.98604186351841</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>27.50658328999275</v>
+        <v>11.55115776185367</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>40.74672585482146</v>
+        <v>53.64556253612864</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>44.46480880534502</v>
+        <v>65.1871688556071</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>6.649782299021894</v>
+        <v>16.35709852708354</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>21.04258102827472</v>
+        <v>20.43674712944449</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>25.71749534718782</v>
+        <v>28.99856566278695</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>2.095881698515086</v>
+        <v>13.22997680186467</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>19.96573738717985</v>
+        <v>31.95655399807251</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>24.26558107891134</v>
+        <v>34.23799651402496</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>6.903185350114423</v>
+        <v>10.12758152347116</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>25.94841947350913</v>
+        <v>42.80554390372587</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>30.54339274757357</v>
+        <v>42.87061544422233</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>27.62854659878169</v>
+        <v>25.54167460947591</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>33.03067943715237</v>
+        <v>31.84231066591583</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>35.247225011417</v>
+        <v>32.62902486001693</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>16.28322426356778</v>
+        <v>22.91683941822215</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>30.2557927506932</v>
+        <v>20.34539023418279</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>34.35638882644375</v>
+        <v>37.43339960001877</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>11.61629578864232</v>
+        <v>16.05334186919627</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>26.33344616940449</v>
+        <v>24.55911783910796</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>30.96354004451057</v>
+        <v>31.81395293193723</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>6.689359078943681</v>
+        <v>14.51445889177655</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>24.74320253763274</v>
+        <v>29.32674274661009</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>29.07769601716199</v>
+        <v>32.60632802374318</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>11.46821576944554</v>
+        <v>1.958332737254388</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>30.75549765126884</v>
+        <v>31.02115055398924</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>6.650164338597516</v>
+        <v>22.83169271715906</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>21.04297269683132</v>
+        <v>34.99419719607216</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>25.71788783379461</v>
+        <v>38.93980724124567</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>2.0962766171914</v>
+        <v>18.54551380488309</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>19.9661438787313</v>
+        <v>48.99946017005895</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>24.265988740146</v>
+        <v>48.90304122953248</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>6.90358451307867</v>
+        <v>15.27071581933945</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>25.94883038830604</v>
+        <v>62.07852987334486</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>30.54380450208583</v>
+        <v>58.86443055181167</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>27.62896327857359</v>
+        <v>58.85405672961608</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>33.03109754176017</v>
+        <v>64.21207945365677</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>35.24764379076868</v>
+        <v>62.95813217015539</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>16.28363150123842</v>
+        <v>36.13933252386821</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>30.25620958607485</v>
+        <v>54.37386610064161</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>34.35680622521433</v>
+        <v>64.262223079904</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>11.6166806629079</v>
+        <v>26.09789733235574</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>26.33384070579004</v>
+        <v>43.3887500755879</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>30.96393550123725</v>
+        <v>47.12665659154718</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>6.689756726693055</v>
+        <v>24.00930903521209</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>24.74361177801192</v>
+        <v>51.05227740855566</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>29.07810652357193</v>
+        <v>52.99014931573749</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>11.46861770395864</v>
+        <v>13.20745109044615</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>30.75591135543356</v>
+        <v>58.25668625341138</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>6.650294760172656</v>
+        <v>13.01541339400047</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>21.04310176337692</v>
+        <v>25.797951349905</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>25.71801556630127</v>
+        <v>32.94545991670842</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>2.096412887565254</v>
+        <v>15.45383431484417</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>19.96627828936129</v>
+        <v>43.20359609700382</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>24.26612206810751</v>
+        <v>46.58411739291018</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>6.90372094145275</v>
+        <v>11.18780547194425</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>25.94896464157264</v>
+        <v>56.9077429628699</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>30.54393744025325</v>
+        <v>58.93102189172846</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>27.62909910740375</v>
+        <v>57.9351064321557</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>33.03123213371875</v>
+        <v>62.76730807193545</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>35.24777781535613</v>
+        <v>66.04206300661224</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>16.28376746176572</v>
+        <v>24.03956865993488</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>30.25634444836511</v>
+        <v>45.47861643208919</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>34.35693978873881</v>
+        <v>59.93277947661455</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>11.61681075358352</v>
+        <v>16.37070427380267</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>26.33396934131549</v>
+        <v>33.90422822251998</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>30.96406285808914</v>
+        <v>41.18639303581913</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>6.689892751414074</v>
+        <v>20.17603220100842</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>24.74374587972897</v>
+        <v>43.92110733927283</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>29.078239575646</v>
+        <v>50.11301602385738</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>11.46875389085082</v>
+        <v>8.13391946855112</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>30.75604528981813</v>
+        <v>51.78757054544813</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>6.650131079875187</v>
+        <v>11.58477126873098</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>21.04294095394645</v>
+        <v>23.19683112266893</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>25.71785584420387</v>
+        <v>34.44577360463453</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>2.096236436536937</v>
+        <v>16.22816991681942</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>19.96610626854942</v>
+        <v>45.60185041877447</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>24.26595053620555</v>
+        <v>50.87778799295399</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>6.903546047277498</v>
+        <v>10.0549653035117</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>25.94879446636352</v>
+        <v>54.98917617382464</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>30.54376829367131</v>
+        <v>60.18077142049871</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>27.62892720698677</v>
+        <v>51.16351589451546</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>33.03106269276527</v>
+        <v>55.95421194365097</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>35.24760868784055</v>
+        <v>61.96642180322215</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>16.2835944839953</v>
+        <v>21.54893640986081</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>30.25617353278455</v>
+        <v>37.90244943022419</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>34.35677007186785</v>
+        <v>60.01575914516852</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>11.61664809317522</v>
+        <v>12.53481596293557</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>26.33380976092862</v>
+        <v>28.77977929212734</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>30.96390427372544</v>
+        <v>39.2796235397963</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>6.689717230976743</v>
+        <v>17.66072476662678</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>24.74357492553498</v>
+        <v>42.52141208037194</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>29.07806906932512</v>
+        <v>50.11855942525117</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>11.4685798692416</v>
+        <v>4.022131995526657</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>30.75587615808774</v>
+        <v>45.47938331886937</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>35.37768422342716</v>
+        <v>36.20153827666645</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>32.53422713846972</v>
+        <v>22.68350409533955</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>38.08923591900538</v>
+        <v>35.52265329722949</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>40.3651504884588</v>
+        <v>36.68548825090969</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>21.17601631768905</v>
+        <v>14.22188367919396</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>35.5345315885698</v>
+        <v>26.82471268238317</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>39.57327758012602</v>
+        <v>37.4251308077316</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>19.95436438845717</v>
+        <v>14.88539378412145</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>34.74431406003788</v>
+        <v>24.05618359185352</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>39.45124592114134</v>
+        <v>31.767475538356</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>15.91536916026462</v>
+        <v>9.970029623165466</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>34.07856537540917</v>
+        <v>27.47773917254148</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>38.41613962704761</v>
+        <v>33.14136078059517</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>20.88876169646291</v>
+        <v>-1.599664257065136</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>40.2803190945974</v>
+        <v>35.07903487213654</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>44.96166570646199</v>
+        <v>44.40632119529133</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>42.71109791525485</v>
+        <v>35.0902643286006</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>48.26263198953521</v>
+        <v>45.41178657974573</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>50.46557609912064</v>
+        <v>51.40272041769163</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>31.12696905796808</v>
+        <v>14.25600982304972</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>45.53107687079111</v>
+        <v>32.11278943293951</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>49.55929466563406</v>
+        <v>45.81563506910565</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>35.37809890305512</v>
+        <v>61.95751154412449</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>32.53464643701276</v>
+        <v>58.91222684178096</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>38.08965665775012</v>
+        <v>70.72292043620757</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>40.36557191335777</v>
+        <v>69.85388930316665</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>21.17642633320477</v>
+        <v>33.46841688123894</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>35.53495127643519</v>
+        <v>66.79483064849182</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>39.57369787761345</v>
+        <v>72.03567876539665</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>19.95475678932933</v>
+        <v>30.9418107154975</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>34.744716194006</v>
+        <v>49.06059966801036</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>39.45164893548687</v>
+        <v>52.44667821716363</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>15.91577447411377</v>
+        <v>26.9363116950153</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>34.07898233828532</v>
+        <v>57.06604320858799</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>38.41655779705683</v>
+        <v>60.64061912694147</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>20.88917149205128</v>
+        <v>16.73618493270025</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>40.28074078025214</v>
+        <v>69.93197405910541</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>44.9620882611025</v>
+        <v>76.17160717897448</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>42.71152537326784</v>
+        <v>80.81276511259421</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>48.26306086397683</v>
+        <v>89.82887390358366</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>50.46600560515454</v>
+        <v>93.53533444123957</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>31.12738709032953</v>
+        <v>42.44652568744531</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>45.53150461212522</v>
+        <v>82.10119615415499</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>49.55972298915643</v>
+        <v>89.48763416481876</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>35.37823156854108</v>
+        <v>61.59922226415004</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>32.53478191278135</v>
+        <v>54.3619918052074</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>38.08979085257947</v>
+        <v>64.74071180335537</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>40.36570551761886</v>
+        <v>68.82301339855505</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>21.17656199868273</v>
+        <v>21.88476502382017</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>35.53508573273317</v>
+        <v>58.62826040045898</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>39.57383107503711</v>
+        <v>68.04516151278187</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>19.95488565709218</v>
+        <v>22.05514653722174</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>34.7448436111964</v>
+        <v>41.03805317084221</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>39.45177502417883</v>
+        <v>47.85939606726479</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>15.91590899200032</v>
+        <v>23.78200164958535</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>34.07911491652625</v>
+        <v>51.18663112890258</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>38.41668929033518</v>
+        <v>58.7197637735267</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>20.88930617872115</v>
+        <v>12.81486841527883</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>40.28087322861822</v>
+        <v>65.37277012441811</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>44.96221937392116</v>
+        <v>77.40071275230821</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>42.71165918061661</v>
+        <v>78.52168475536371</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>48.26319337880096</v>
+        <v>86.49894579155401</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>50.4661375388476</v>
+        <v>95.47877006412489</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>31.1275211211888</v>
+        <v>31.9717934781067</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>45.53163744651495</v>
+        <v>76.07715508750547</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>49.55985454993485</v>
+        <v>87.68082482874391</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>35.37806339231815</v>
+        <v>57.46141932626737</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>32.534611288401</v>
+        <v>41.96835851294106</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>38.08962277492147</v>
+        <v>51.48972545768718</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>40.36553777269202</v>
+        <v>58.08576657343247</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>21.1763901161993</v>
+        <v>15.06464063788173</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>35.5349161415936</v>
+        <v>48.07010617698146</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>39.57366262154835</v>
+        <v>63.31672135443581</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>19.95472032701907</v>
+        <v>20.63852334382003</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>34.74468133208329</v>
+        <v>38.79353065779868</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>39.45161381079083</v>
+        <v>49.2982774522308</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>15.91573126466282</v>
+        <v>23.21993583735009</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>34.07894174612959</v>
+        <v>52.22264166545941</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>38.41651661105757</v>
+        <v>61.39847399670305</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>20.88912992305434</v>
+        <v>10.20501578954211</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>40.28070181547625</v>
+        <v>61.33798702357326</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>44.96204903234983</v>
+        <v>76.34556830616916</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>42.71148652902259</v>
+        <v>68.9505516133037</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>48.26302326460915</v>
+        <v>76.58830395047519</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>50.46596777628045</v>
+        <v>88.63929499038025</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>31.127347268994</v>
+        <v>26.57129427072142</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>45.53146584085345</v>
+        <v>67.20762882223255</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>49.5596840946392</v>
+        <v>85.01815841377808</v>
       </c>
     </row>
   </sheetData>
